--- a/WebApi/RiotApi - Data Model.xlsx
+++ b/WebApi/RiotApi - Data Model.xlsx
@@ -1477,7 +1477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1488,7 +1488,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WebApi/RiotApi - Data Model.xlsx
+++ b/WebApi/RiotApi - Data Model.xlsx
@@ -1039,7 +1039,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,6 +1080,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1165,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1205,6 +1213,7 @@
     <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1477,7 +1486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1487,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,13 +1686,13 @@
       <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>50</v>
+      <c r="E11" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="33" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="18" t="s">
@@ -1711,7 +1720,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>51</v>
@@ -1737,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>41</v>
@@ -1754,7 +1763,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>58</v>
@@ -1774,7 +1783,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>60</v>
@@ -1791,7 +1800,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>61</v>

--- a/WebApi/RiotApi - Data Model.xlsx
+++ b/WebApi/RiotApi - Data Model.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlu\git\Champion Selection Analyzer\WebApi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="1320"/>
   </bookViews>
@@ -10,6 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1038,7 +1044,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1173,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1214,6 +1220,7 @@
     <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1486,7 +1493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1496,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,13 +1926,13 @@
       <c r="A22" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="34" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="3"/>
@@ -2145,7 +2152,7 @@
       <c r="A31" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="19" t="s">
@@ -2264,7 +2271,7 @@
       <c r="A37" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="34" t="s">
         <v>35</v>
       </c>
       <c r="G37" s="16" t="s">
@@ -2468,7 +2475,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="34" t="s">
         <v>28</v>
       </c>
       <c r="G46" s="18" t="s">
